--- a/Danger Signs.xlsx
+++ b/Danger Signs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <r>
       <t xml:space="preserve">What do you do when you see this traffic sign? 
@@ -1422,13 +1422,16 @@
   </si>
   <si>
     <t>Swerving</t>
+  </si>
+  <si>
+    <t>Questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,15 +1464,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1643,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1660,7 +1654,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1675,10 +1668,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1688,28 +1716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1722,25 +1728,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3615,872 +3611,887 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C96"/>
+  <dimension ref="A2:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="50">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="23">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="42">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="42">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="42">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="51">
         <v>2</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="24">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="54">
         <v>3</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f>88+47+4</f>
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="30">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="30">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="54">
         <v>4</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="9">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+      <c r="A24" s="47">
         <v>5</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="47">
         <v>6</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <f>15+16+28</f>
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="48"/>
+      <c r="B31" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="48"/>
+      <c r="B34" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="A37" s="47">
         <v>7</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <f>13+13+73</f>
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="48"/>
+      <c r="B38" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="48"/>
+      <c r="B39" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="48"/>
+      <c r="B41" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="48"/>
+      <c r="B42" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+      <c r="A44" s="48">
         <v>8</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <f>31+12+52</f>
         <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="48"/>
+      <c r="B46" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="48"/>
+      <c r="B47" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="48"/>
+      <c r="B48" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="48"/>
+      <c r="B49" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="48"/>
+      <c r="B50" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="48"/>
+      <c r="B51" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="16" t="s">
+      <c r="A52" s="49"/>
+      <c r="B52" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
+      <c r="A53" s="47">
         <v>9</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <f>27+118</f>
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="13" t="s">
+      <c r="A54" s="48"/>
+      <c r="B54" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="32">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="13" t="s">
+      <c r="A55" s="48"/>
+      <c r="B55" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="32">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="13" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="13" t="s">
+      <c r="A57" s="48"/>
+      <c r="B57" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="13" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="13" t="s">
+      <c r="A59" s="48"/>
+      <c r="B59" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="16" t="s">
+      <c r="A60" s="49"/>
+      <c r="B60" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
+      <c r="A61" s="47">
         <v>10</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <f>21+7+17</f>
         <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="20" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="22">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="20" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="22">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="48"/>
+      <c r="B64" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="31">
+      <c r="C64" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="29" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="48"/>
+      <c r="B65" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="31">
+      <c r="C65" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="30" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="49"/>
+      <c r="B66" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="47">
         <v>11</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="20" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="48"/>
+      <c r="B68" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="20" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="48"/>
+      <c r="B69" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="20" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="48"/>
+      <c r="B70" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="20" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="48"/>
+      <c r="B71" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="21" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="48"/>
+      <c r="B72" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
-      <c r="B73" s="22" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="49"/>
+      <c r="B73" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="39">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="47">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="44">
         <v>12</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="54">
+      <c r="C74" s="28">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
-      <c r="B75" s="49" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="45"/>
+      <c r="B75" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="30">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="49" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="45"/>
+      <c r="B76" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="30">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="16" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="46"/>
+      <c r="B77" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="47">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="44">
         <v>13</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="52">
+      <c r="C78" s="28">
         <f>89+59</f>
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="49" t="s">
+      <c r="E78" s="27"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="45"/>
+      <c r="B79" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="30">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
-      <c r="B80" s="49" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="45"/>
+      <c r="B80" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="30">
         <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
-      <c r="B81" s="49" t="s">
+      <c r="A81" s="45"/>
+      <c r="B81" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="48"/>
-      <c r="B82" s="13" t="s">
+      <c r="A82" s="45"/>
+      <c r="B82" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="30">
         <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
-      <c r="B83" s="19" t="s">
+      <c r="A83" s="45"/>
+      <c r="B83" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
-      <c r="B84" s="13" t="s">
+      <c r="A84" s="45"/>
+      <c r="B84" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="11" t="s">
+      <c r="A85" s="46"/>
+      <c r="B85" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="35">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="47">
+      <c r="A86" s="44">
         <v>14</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="52">
+      <c r="C86" s="28">
         <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
-      <c r="B87" s="49" t="s">
+      <c r="A87" s="45"/>
+      <c r="B87" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="37">
+        <v>11</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
-      <c r="B88" s="49" t="s">
+      <c r="A88" s="45"/>
+      <c r="B88" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C88" s="9"/>
+      <c r="C88" s="30">
+        <v>6</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
-      <c r="B89" s="49" t="s">
+      <c r="A89" s="45"/>
+      <c r="B89" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C89" s="9"/>
+      <c r="C89" s="30">
+        <v>18</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
-      <c r="B90" s="49" t="s">
+      <c r="A90" s="45"/>
+      <c r="B90" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C90" s="51"/>
+      <c r="C90" s="30">
+        <v>17</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
-      <c r="B91" s="13" t="s">
+      <c r="A91" s="45"/>
+      <c r="B91" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C91" s="49"/>
+      <c r="C91" s="30">
+        <v>24</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="50"/>
-      <c r="B92" s="32" t="s">
+      <c r="A92" s="46"/>
+      <c r="B92" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C92" s="49"/>
+      <c r="C92" s="35">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="18"/>
+      <c r="B93" s="17"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="18"/>
+      <c r="B94" s="17"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="18"/>
+      <c r="B95" s="17"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="18"/>
+      <c r="B96" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4508,8 +4519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,10 +4943,10 @@
       <c r="A46" s="3">
         <v>46</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="28"/>
+      <c r="C46" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Danger Signs.xlsx
+++ b/Danger Signs.xlsx
@@ -1701,24 +1701,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1735,6 +1717,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3616,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,7 +3639,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="50">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -3650,7 +3650,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="30" t="s">
         <v>51</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="30" t="s">
         <v>52</v>
       </c>
@@ -3668,7 +3668,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="30" t="s">
         <v>53</v>
       </c>
@@ -3677,7 +3677,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="30" t="s">
         <v>54</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="41" t="s">
         <v>64</v>
       </c>
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="45">
         <v>2</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -3706,7 +3706,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="30" t="s">
         <v>56</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="30" t="s">
         <v>57</v>
       </c>
@@ -3724,7 +3724,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="35" t="s">
         <v>58</v>
       </c>
@@ -3733,7 +3733,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="48">
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -3745,7 +3745,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="30" t="s">
         <v>60</v>
       </c>
@@ -3754,7 +3754,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="30" t="s">
         <v>61</v>
       </c>
@@ -3763,7 +3763,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -3772,7 +3772,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="10" t="s">
         <v>63</v>
       </c>
@@ -3781,7 +3781,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A17" s="48">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -3792,7 +3792,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="30" t="s">
         <v>66</v>
       </c>
@@ -3801,7 +3801,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="30" t="s">
         <v>67</v>
       </c>
@@ -3810,7 +3810,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="8" t="s">
         <v>68</v>
       </c>
@@ -3819,7 +3819,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="8" t="s">
         <v>69</v>
       </c>
@@ -3828,7 +3828,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="35" t="s">
         <v>70</v>
       </c>
@@ -3837,7 +3837,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
+      <c r="A23" s="50">
         <v>5</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -3848,7 +3848,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="12" t="s">
         <v>72</v>
       </c>
@@ -3857,7 +3857,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="13" t="s">
         <v>73</v>
       </c>
@@ -3866,7 +3866,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="12" t="s">
         <v>74</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="12" t="s">
         <v>75</v>
       </c>
@@ -3884,7 +3884,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="15" t="s">
         <v>76</v>
       </c>
@@ -3893,7 +3893,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="47">
+      <c r="A29" s="50">
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -3905,7 +3905,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="12" t="s">
         <v>78</v>
       </c>
@@ -3914,7 +3914,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="12" t="s">
         <v>79</v>
       </c>
@@ -3923,7 +3923,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="12" t="s">
         <v>80</v>
       </c>
@@ -3932,7 +3932,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="12" t="s">
         <v>81</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="12" t="s">
         <v>82</v>
       </c>
@@ -3950,7 +3950,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="15" t="s">
         <v>83</v>
       </c>
@@ -3959,7 +3959,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="47">
+      <c r="A36" s="50">
         <v>7</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -3971,7 +3971,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="12" t="s">
         <v>85</v>
       </c>
@@ -3980,7 +3980,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="12" t="s">
         <v>86</v>
       </c>
@@ -3989,7 +3989,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="12" t="s">
         <v>87</v>
       </c>
@@ -3998,7 +3998,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="12" t="s">
         <v>88</v>
       </c>
@@ -4007,7 +4007,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="12" t="s">
         <v>89</v>
       </c>
@@ -4016,7 +4016,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="15" t="s">
         <v>90</v>
       </c>
@@ -4025,7 +4025,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="48">
+      <c r="A43" s="51">
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -4037,7 +4037,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="12" t="s">
         <v>92</v>
       </c>
@@ -4046,7 +4046,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="12" t="s">
         <v>93</v>
       </c>
@@ -4055,7 +4055,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="12" t="s">
         <v>94</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="12" t="s">
         <v>95</v>
       </c>
@@ -4073,7 +4073,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="12" t="s">
         <v>96</v>
       </c>
@@ -4082,7 +4082,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
@@ -4091,7 +4091,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="12" t="s">
         <v>98</v>
       </c>
@@ -4100,7 +4100,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="15" t="s">
         <v>99</v>
       </c>
@@ -4109,7 +4109,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="47">
+      <c r="A52" s="50">
         <v>9</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -4121,7 +4121,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="31" t="s">
         <v>106</v>
       </c>
@@ -4130,7 +4130,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="31" t="s">
         <v>107</v>
       </c>
@@ -4139,7 +4139,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="12" t="s">
         <v>108</v>
       </c>
@@ -4148,7 +4148,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="12" t="s">
         <v>109</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="12" t="s">
         <v>110</v>
       </c>
@@ -4166,7 +4166,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="31" t="s">
         <v>111</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="38" t="s">
         <v>139</v>
       </c>
@@ -4184,7 +4184,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="47">
+      <c r="A60" s="50">
         <v>10</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -4196,7 +4196,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="18" t="s">
         <v>134</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="18" t="s">
         <v>135</v>
       </c>
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="18" t="s">
         <v>136</v>
       </c>
@@ -4223,7 +4223,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="20" t="s">
         <v>137</v>
       </c>
@@ -4232,7 +4232,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="21" t="s">
         <v>138</v>
       </c>
@@ -4241,7 +4241,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="47">
+      <c r="A66" s="50">
         <v>11</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -4252,7 +4252,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="18" t="s">
         <v>128</v>
       </c>
@@ -4261,7 +4261,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="18" t="s">
         <v>129</v>
       </c>
@@ -4270,7 +4270,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="18" t="s">
         <v>130</v>
       </c>
@@ -4279,7 +4279,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="18" t="s">
         <v>131</v>
       </c>
@@ -4288,7 +4288,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="19" t="s">
         <v>132</v>
       </c>
@@ -4297,7 +4297,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="40" t="s">
         <v>133</v>
       </c>
@@ -4306,7 +4306,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="44">
+      <c r="A73" s="53">
         <v>12</v>
       </c>
       <c r="B73" s="28" t="s">
@@ -4317,7 +4317,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="33" t="s">
         <v>125</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="33" t="s">
         <v>126</v>
       </c>
@@ -4335,7 +4335,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="38" t="s">
         <v>127</v>
       </c>
@@ -4344,7 +4344,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="44">
+      <c r="A77" s="53">
         <v>13</v>
       </c>
       <c r="B77" s="28" t="s">
@@ -4357,7 +4357,7 @@
       <c r="E77" s="27"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="33" t="s">
         <v>118</v>
       </c>
@@ -4366,7 +4366,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="33" t="s">
         <v>119</v>
       </c>
@@ -4375,7 +4375,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="33" t="s">
         <v>120</v>
       </c>
@@ -4384,7 +4384,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="31" t="s">
         <v>121</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="34" t="s">
         <v>122</v>
       </c>
@@ -4402,7 +4402,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="31" t="s">
         <v>123</v>
       </c>
@@ -4411,7 +4411,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="35" t="s">
         <v>124</v>
       </c>
@@ -4420,7 +4420,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="44">
+      <c r="A85" s="53">
         <v>14</v>
       </c>
       <c r="B85" s="29" t="s">
@@ -4431,7 +4431,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="33" t="s">
         <v>112</v>
       </c>
@@ -4440,7 +4440,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="33" t="s">
         <v>113</v>
       </c>
@@ -4449,7 +4449,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="33" t="s">
         <v>114</v>
       </c>
@@ -4458,7 +4458,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="33" t="s">
         <v>115</v>
       </c>
@@ -4467,7 +4467,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="31" t="s">
         <v>116</v>
       </c>
@@ -4476,7 +4476,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="46"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="36" t="s">
         <v>117</v>
       </c>
@@ -4499,11 +4499,6 @@
   </sheetData>
   <autoFilter ref="C1:C96"/>
   <mergeCells count="14">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="A77:A84"/>
     <mergeCell ref="A85:A91"/>
@@ -4513,6 +4508,11 @@
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A52:A59"/>
     <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Danger Signs.xlsx
+++ b/Danger Signs.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chapters" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chapters!$C$1:$C$96</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <r>
       <t xml:space="preserve">What do you do when you see this traffic sign? 
@@ -1429,12 +1429,490 @@
   <si>
     <t>Questions</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does this traffic sign combination indicate ? The road signposted like this
+a) may be used by winter sports enthusiasts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) may only be used with snow chains
+c) may not be used by traffic in winter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What applied with this traffic sign? 
+ A) I have to anticipate taxi moving off and coming to a stop
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) I may park
+c) I may stop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What applies with this traffic sign?
+A) I may only continue driving by taking a right turn
+b) I have to signal a right-turn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) I may also continue driving by taking a left turn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What applies in the area 15m in front of and behing this traffic sign? I may
+a) not obstruct passengers boarding or alighting
+b) stop
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) park</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What applies with this traffic sign?
+A) I have to drive past obstructions to the left
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) I may not turn right before the sign
+c) I am obliged to turn left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What do you have to be aware of with this traffic sign?
+A) I may only continue driving by taking a left turn
+b) I have to signal a left-turn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) I may not signal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does this traffic sign?
+A) A bridle path, which may not be used by other road users
+b) A bridle-path, which riders are required to use
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) A path, which may not be used by riders</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What do you do upon seeing this traffic sign?
+A) I allow the cross-wise moving traffic the right of way
+b) I approach at a moderate speed ready to brake
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) If I am turning right, I am not obliged to wait</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does this traffic sign indicate?
+A) I may only drive straight ahead
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) I have priority over oncoming traffic
+c) I am on a one-way road</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does this traffic sign indicate?
+A) I may not drive faster than 60 km/h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) There is absolutely no problem in driving at 60 km/h
+c) The recommended minimum speed is 60 km/h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What must you do upon seeing this traffic sign?
+A) I may not perform a U-turn here
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) I am in a cul-de-sac and have to turn around
+c) I may not turn left here</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How must you act when driving a vehicle during permitted delivery times?
+A) I may only drive at walking speed
+b) I must keep a close look out for pedestrians
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) If there are no pedestrians in my vicinity, I may drive faster than walking speed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What vehicles are permitted to use this road?
+A) Cycles and motorcycles that are pushed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) Electric-powered vehicles
+c) Motor vehicles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does this traffic sign indicate?
+A) A footpath
+b) A prohibition on cycles and mopeds
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) The start of a traffic-calming zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does this traffic sign combination indicate? 100 m ahead is a traffic sign saying
+a) Stop. Give way
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) Give way to oncoming traffic
+c) Give way</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does this traffic sign indicate?
+A) A mandatory cycle path
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) A cyclists prohibited zone
+c) Cyclists crossing the carriageway</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which vehicles can cause serious accidents when this traffic sign is ignored? Vehicles of the following dimensions, including load
+a) Length 8 m, width 2.5 m, height 4 m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) Length 4 m, width 2.5 m, height 2.5 m
+c) Length 10 m, width 3.9 m, height 3 m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does this traffic sign indicate?
+A) A prohibition for vehicles more than 2 m wide including load
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) You must keep a lateral distance of at least 2 m from other vehicles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) A roadway 2 m wide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which vehicles are prohibited from using a road-sign posted like this?
+A) Vehicles with an actual axle weight exceeding 2 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) Vehicles with a permissible axle weight exceeding 2 t
+c) Vehicles with a permissible total weight not exceeding 2 t</t>
+    </r>
+  </si>
+  <si>
+    <t>Which traffic sign refers to the actual mass ?
+1</t>
+  </si>
+  <si>
+    <t>Which traffic sign refers to the permissible total mass ?
+2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What must you remember when you see this traffic sign?
+A) Use snow chains
+b) Maximum permissible speed 50 km/h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) Track-vehicles have priority</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What ends here?
+A) A no-waiting area
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) All previous zonal prohibitions
+c) A no-stopping area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is allowed in the zone which starts here?
+A) Stopping for loading or unloading as well as boarding or alighting
+b) Stopping for upto 3 minutes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) Parking provided a parking disc is used</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What do these traffic signs indicate? No stopping ___________
+a) On the roadway and the hard shoulder
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) For trucks only
+c) On the hard shoulder only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which prohibitions are ended by this traffic signs?
+A) Speed restrictions
+b) No overtaking
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c) No parking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What does this traffic sign indicate?
+A) End of speed restriction
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b) Start of speed restriction
+c) A prohibition to drive faster than 60 km/h</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1476,6 +1954,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF007E39"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1640,7 +2132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1702,24 +2194,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1738,12 +2212,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3341,6 +3845,1794 @@
         <a:xfrm>
           <a:off x="298174" y="19879"/>
           <a:ext cx="647700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>117724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>103257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736849</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>722382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="592594" y="4807779"/>
+          <a:ext cx="619125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125343</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>734943</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>685937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600213" y="876299"/>
+          <a:ext cx="609600" cy="593725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>661808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="604410" y="5588442"/>
+          <a:ext cx="571500" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>115073</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>102483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>724673</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>712083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="589943" y="3238831"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65156</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>745241</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>740300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="540026" y="6346246"/>
+          <a:ext cx="680085" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125343</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>740658</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>733811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600213" y="1663810"/>
+          <a:ext cx="615315" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95636</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>707776</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>683537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="570506" y="3975322"/>
+          <a:ext cx="612140" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>72776</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>70126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>730001</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>710841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="547646" y="70126"/>
+          <a:ext cx="657225" cy="640715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>80397</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>718572</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>704464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555267" y="2431885"/>
+          <a:ext cx="638175" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121478</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807278</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>716501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596348" y="7123044"/>
+          <a:ext cx="685800" cy="650240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88348</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>143566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>706783</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>705265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563218" y="7984436"/>
+          <a:ext cx="618435" cy="561699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>77304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>735551</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>753579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541131" y="8702261"/>
+          <a:ext cx="669290" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>110435</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>707225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>726108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="585305" y="9541564"/>
+          <a:ext cx="596790" cy="593587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88348</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695739</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>718461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563218" y="10314609"/>
+          <a:ext cx="607391" cy="596982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>77305</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>745960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1167074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552175" y="11087651"/>
+          <a:ext cx="668655" cy="1056640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>77304</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>686904</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1062438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552174" y="12390783"/>
+          <a:ext cx="609600" cy="974090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>77304</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>753579</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>756505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552174" y="11043477"/>
+          <a:ext cx="676275" cy="690245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>77305</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>744055</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>733010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552175" y="14257130"/>
+          <a:ext cx="666750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55217</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>782927</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>778869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="530087" y="15019131"/>
+          <a:ext cx="727710" cy="734695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88348</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>764623</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>735551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563218" y="15825304"/>
+          <a:ext cx="676275" cy="669290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44173</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>748665</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="519043" y="16598347"/>
+          <a:ext cx="704492" cy="728870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>790160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>752448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541130" y="17382435"/>
+          <a:ext cx="723900" cy="697230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>753221</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1025249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508001" y="18155478"/>
+          <a:ext cx="720090" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>773043</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>822684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="19392348"/>
+          <a:ext cx="739913" cy="657032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>717826</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>720862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="20264782"/>
+          <a:ext cx="684696" cy="599384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121479</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695739</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>749024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596349" y="21026783"/>
+          <a:ext cx="574260" cy="649632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>718516</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>688561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="574261" y="21777739"/>
+          <a:ext cx="619125" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88347</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>764622</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>714209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563217" y="22572869"/>
+          <a:ext cx="676275" cy="636905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742536</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1110146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541131" y="23456348"/>
+          <a:ext cx="676275" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>728869</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1000401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541131" y="24626957"/>
+          <a:ext cx="662608" cy="856835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>739913</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1181652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607391" y="22583913"/>
+          <a:ext cx="607392" cy="1093304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723486</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>791403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541131" y="20264782"/>
+          <a:ext cx="657225" cy="669925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>756616</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>687291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="574261" y="28746174"/>
+          <a:ext cx="657225" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>110436</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>710511</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>719896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="585306" y="28028347"/>
+          <a:ext cx="600075" cy="587375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>77305</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>77304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>778980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1058379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552175" y="29541304"/>
+          <a:ext cx="701675" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>728042</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>708991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="574262" y="30734000"/>
+          <a:ext cx="628650" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>77304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>764126</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>743419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541131" y="31496000"/>
+          <a:ext cx="697865" cy="666115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55217</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>753717</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1149544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="530087" y="32324262"/>
+          <a:ext cx="698500" cy="1028065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>110435</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>733370</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>992588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="585305" y="33594261"/>
+          <a:ext cx="622935" cy="904240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132523</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>806175</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>690769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607393" y="34643390"/>
+          <a:ext cx="673652" cy="624509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>154609</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>795131</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>719813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="629479" y="35526869"/>
+          <a:ext cx="640522" cy="554161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>154609</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>265044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>784087</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>872021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="629479" y="36410348"/>
+          <a:ext cx="629478" cy="606977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>55218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799271</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>684503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607391" y="37293827"/>
+          <a:ext cx="666750" cy="629285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176696</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>814871</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>896703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="651566" y="38111044"/>
+          <a:ext cx="638175" cy="808355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198782</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>846482</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>724341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673652" y="39182260"/>
+          <a:ext cx="647700" cy="591820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>839304</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>971826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="706783" y="39933218"/>
+          <a:ext cx="607391" cy="872434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>873126</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>751646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728871" y="41037564"/>
+          <a:ext cx="619125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44174</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>154609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>954129</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>716584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="519044" y="41534522"/>
+          <a:ext cx="909955" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66260</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952169</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>806174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541130" y="42252348"/>
+          <a:ext cx="885909" cy="717826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3617,18 +5909,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
@@ -3639,8 +5931,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -3650,8 +5942,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
       <c r="B3" s="29" t="s">
         <v>51</v>
       </c>
@@ -3659,8 +5951,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
       <c r="B4" s="29" t="s">
         <v>52</v>
       </c>
@@ -3668,8 +5960,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
       <c r="B5" s="29" t="s">
         <v>53</v>
       </c>
@@ -3677,8 +5969,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
       <c r="B6" s="29" t="s">
         <v>54</v>
       </c>
@@ -3686,8 +5978,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
       <c r="B7" s="40" t="s">
         <v>64</v>
       </c>
@@ -3695,8 +5987,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
         <v>2</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -3706,8 +5998,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
       <c r="B9" s="29" t="s">
         <v>56</v>
       </c>
@@ -3715,8 +6007,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
       <c r="B10" s="29" t="s">
         <v>57</v>
       </c>
@@ -3724,8 +6016,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
       <c r="B11" s="34" t="s">
         <v>58</v>
       </c>
@@ -3733,8 +6025,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="55">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -3745,8 +6037,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
       <c r="B13" s="29" t="s">
         <v>60</v>
       </c>
@@ -3754,8 +6046,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
       <c r="B14" s="29" t="s">
         <v>61</v>
       </c>
@@ -3763,8 +6055,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -3772,8 +6064,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
       <c r="B16" s="10" t="s">
         <v>63</v>
       </c>
@@ -3781,8 +6073,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="49">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -3792,8 +6084,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
       <c r="B18" s="29" t="s">
         <v>66</v>
       </c>
@@ -3801,8 +6093,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
       <c r="B19" s="29" t="s">
         <v>67</v>
       </c>
@@ -3810,8 +6102,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
       <c r="B20" s="8" t="s">
         <v>68</v>
       </c>
@@ -3819,8 +6111,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="49"/>
       <c r="B21" s="8" t="s">
         <v>69</v>
       </c>
@@ -3828,8 +6120,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="49"/>
       <c r="B22" s="34" t="s">
         <v>70</v>
       </c>
@@ -3837,8 +6129,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="51">
         <v>5</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -3848,8 +6140,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
       <c r="B24" s="12" t="s">
         <v>72</v>
       </c>
@@ -3857,8 +6149,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
       <c r="B25" s="13" t="s">
         <v>73</v>
       </c>
@@ -3866,8 +6158,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
       <c r="B26" s="12" t="s">
         <v>74</v>
       </c>
@@ -3875,8 +6167,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="52"/>
       <c r="B27" s="12" t="s">
         <v>75</v>
       </c>
@@ -3884,8 +6176,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="53"/>
       <c r="B28" s="15" t="s">
         <v>76</v>
       </c>
@@ -3893,8 +6185,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="51">
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -3905,8 +6197,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="52"/>
       <c r="B30" s="12" t="s">
         <v>78</v>
       </c>
@@ -3914,8 +6206,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="52"/>
       <c r="B31" s="30" t="s">
         <v>79</v>
       </c>
@@ -3923,8 +6215,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
       <c r="B32" s="30" t="s">
         <v>80</v>
       </c>
@@ -3932,8 +6224,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="52"/>
       <c r="B33" s="30" t="s">
         <v>81</v>
       </c>
@@ -3941,8 +6233,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="52"/>
       <c r="B34" s="30" t="s">
         <v>82</v>
       </c>
@@ -3950,8 +6242,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
       <c r="B35" s="37" t="s">
         <v>83</v>
       </c>
@@ -3959,8 +6251,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="51">
         <v>7</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -3971,8 +6263,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="52"/>
       <c r="B37" s="12" t="s">
         <v>85</v>
       </c>
@@ -3980,8 +6272,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="52"/>
       <c r="B38" s="12" t="s">
         <v>86</v>
       </c>
@@ -3989,8 +6281,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="52"/>
       <c r="B39" s="12" t="s">
         <v>87</v>
       </c>
@@ -3998,8 +6290,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="52"/>
       <c r="B40" s="12" t="s">
         <v>88</v>
       </c>
@@ -4007,8 +6299,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="52"/>
       <c r="B41" s="12" t="s">
         <v>89</v>
       </c>
@@ -4016,8 +6308,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="53"/>
       <c r="B42" s="15" t="s">
         <v>90</v>
       </c>
@@ -4025,8 +6317,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="49">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="52">
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -4037,8 +6329,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="52"/>
       <c r="B44" s="12" t="s">
         <v>92</v>
       </c>
@@ -4046,8 +6338,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="52"/>
       <c r="B45" s="12" t="s">
         <v>93</v>
       </c>
@@ -4055,8 +6347,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="52"/>
       <c r="B46" s="12" t="s">
         <v>94</v>
       </c>
@@ -4064,8 +6356,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="52"/>
       <c r="B47" s="12" t="s">
         <v>95</v>
       </c>
@@ -4073,8 +6365,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="52"/>
       <c r="B48" s="12" t="s">
         <v>96</v>
       </c>
@@ -4082,8 +6374,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="52"/>
       <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
@@ -4091,8 +6383,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="52"/>
       <c r="B50" s="12" t="s">
         <v>98</v>
       </c>
@@ -4100,8 +6392,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="53"/>
       <c r="B51" s="15" t="s">
         <v>99</v>
       </c>
@@ -4109,8 +6401,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="48">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="51">
         <v>9</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -4121,8 +6413,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="52"/>
       <c r="B53" s="30" t="s">
         <v>106</v>
       </c>
@@ -4130,8 +6422,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="52"/>
       <c r="B54" s="30" t="s">
         <v>107</v>
       </c>
@@ -4139,8 +6431,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="52"/>
       <c r="B55" s="12" t="s">
         <v>108</v>
       </c>
@@ -4148,8 +6440,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="52"/>
       <c r="B56" s="12" t="s">
         <v>109</v>
       </c>
@@ -4157,8 +6449,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="52"/>
       <c r="B57" s="12" t="s">
         <v>110</v>
       </c>
@@ -4166,8 +6458,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="52"/>
       <c r="B58" s="30" t="s">
         <v>111</v>
       </c>
@@ -4175,8 +6467,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="53"/>
       <c r="B59" s="37" t="s">
         <v>139</v>
       </c>
@@ -4184,8 +6476,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="48">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="51">
         <v>10</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -4196,8 +6488,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="52"/>
       <c r="B61" s="18" t="s">
         <v>134</v>
       </c>
@@ -4205,8 +6497,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="52"/>
       <c r="B62" s="18" t="s">
         <v>135</v>
       </c>
@@ -4214,8 +6506,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="52"/>
       <c r="B63" s="18" t="s">
         <v>136</v>
       </c>
@@ -4223,8 +6515,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="52"/>
       <c r="B64" s="19" t="s">
         <v>137</v>
       </c>
@@ -4232,8 +6524,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="53"/>
       <c r="B65" s="20" t="s">
         <v>138</v>
       </c>
@@ -4241,8 +6533,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="48">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="51">
         <v>11</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -4252,8 +6544,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="52"/>
       <c r="B67" s="18" t="s">
         <v>128</v>
       </c>
@@ -4261,8 +6553,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="52"/>
       <c r="B68" s="43" t="s">
         <v>129</v>
       </c>
@@ -4270,8 +6562,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="52"/>
       <c r="B69" s="43" t="s">
         <v>130</v>
       </c>
@@ -4279,8 +6571,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="52"/>
       <c r="B70" s="43" t="s">
         <v>131</v>
       </c>
@@ -4288,8 +6580,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="52"/>
       <c r="B71" s="44" t="s">
         <v>132</v>
       </c>
@@ -4297,8 +6589,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="53"/>
       <c r="B72" s="39" t="s">
         <v>133</v>
       </c>
@@ -4306,8 +6598,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="54">
         <v>12</v>
       </c>
       <c r="B73" s="27" t="s">
@@ -4317,8 +6609,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="55"/>
       <c r="B74" s="32" t="s">
         <v>125</v>
       </c>
@@ -4326,8 +6618,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="55"/>
       <c r="B75" s="32" t="s">
         <v>126</v>
       </c>
@@ -4335,8 +6627,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="56"/>
       <c r="B76" s="37" t="s">
         <v>127</v>
       </c>
@@ -4344,8 +6636,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="54">
         <v>13</v>
       </c>
       <c r="B77" s="27" t="s">
@@ -4357,8 +6649,8 @@
       </c>
       <c r="E77" s="26"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="55"/>
       <c r="B78" s="32" t="s">
         <v>118</v>
       </c>
@@ -4366,8 +6658,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="55"/>
       <c r="B79" s="32" t="s">
         <v>119</v>
       </c>
@@ -4375,8 +6667,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="55"/>
       <c r="B80" s="32" t="s">
         <v>120</v>
       </c>
@@ -4384,8 +6676,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="55"/>
       <c r="B81" s="30" t="s">
         <v>121</v>
       </c>
@@ -4393,8 +6685,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="46"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="55"/>
       <c r="B82" s="33" t="s">
         <v>122</v>
       </c>
@@ -4402,8 +6694,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="46"/>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="55"/>
       <c r="B83" s="30" t="s">
         <v>123</v>
       </c>
@@ -4411,8 +6703,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="56"/>
       <c r="B84" s="34" t="s">
         <v>124</v>
       </c>
@@ -4420,8 +6712,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="54">
         <v>14</v>
       </c>
       <c r="B85" s="28" t="s">
@@ -4431,8 +6723,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="55"/>
       <c r="B86" s="32" t="s">
         <v>112</v>
       </c>
@@ -4440,8 +6732,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="46"/>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="55"/>
       <c r="B87" s="32" t="s">
         <v>113</v>
       </c>
@@ -4449,8 +6741,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="55"/>
       <c r="B88" s="32" t="s">
         <v>114</v>
       </c>
@@ -4458,8 +6750,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="55"/>
       <c r="B89" s="32" t="s">
         <v>115</v>
       </c>
@@ -4467,8 +6759,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="46"/>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="55"/>
       <c r="B90" s="30" t="s">
         <v>116</v>
       </c>
@@ -4476,8 +6768,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="56"/>
       <c r="B91" s="35" t="s">
         <v>117</v>
       </c>
@@ -4485,26 +6777,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B92" s="17"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B93" s="17"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B94" s="17"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B95" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C96"/>
   <mergeCells count="14">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="A77:A84"/>
     <mergeCell ref="A85:A91"/>
@@ -4514,6 +6801,11 @@
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A52:A59"/>
     <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4528,14 +6820,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -4546,7 +6838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -4555,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -4564,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -4573,7 +6865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -4582,7 +6874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -4591,7 +6883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -4600,7 +6892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -4609,7 +6901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -4618,7 +6910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -4627,7 +6919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -4636,7 +6928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -4645,7 +6937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -4654,7 +6946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -4663,7 +6955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -4672,7 +6964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -4681,7 +6973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -4690,7 +6982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -4699,7 +6991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -4708,7 +7000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -4717,7 +7009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -4726,7 +7018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -4735,7 +7027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -4744,7 +7036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -4753,7 +7045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -4762,7 +7054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -4771,7 +7063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -4780,7 +7072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -4789,7 +7081,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -4798,7 +7090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -4807,7 +7099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -4816,7 +7108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -4825,7 +7117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -4834,7 +7126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -4843,7 +7135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -4852,7 +7144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -4861,7 +7153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -4870,7 +7162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -4879,7 +7171,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -4888,7 +7180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -4897,7 +7189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -4906,7 +7198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>42</v>
       </c>
@@ -4915,7 +7207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>43</v>
       </c>
@@ -4924,7 +7216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44</v>
       </c>
@@ -4933,7 +7225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45</v>
       </c>
@@ -4944,7 +7236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>46</v>
       </c>
@@ -4965,13 +7257,185 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="86.88671875" style="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:3" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:3" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" ht="103.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="3:3" ht="94.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="3:3" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="3:3" ht="92.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="102.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="3:3" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4983,7 +7447,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
